--- a/data-raw/input/leafletproviders-ESP.xlsx
+++ b/data-raw/input/leafletproviders-ESP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q31407\Documents\R\Projects\mapSpain\data-raw\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q31407\Documents\R\Projects\mapSpain-main\data-raw\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="providers" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">providers!$A$1:$C$749</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">providers!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="314">
   <si>
     <t>url</t>
   </si>
@@ -948,13 +948,34 @@
   </si>
   <si>
     <t>http://ideihm.covam.es/ihm-inspire/wms-unidadesmaritimas?SERVICE=WMS&amp;VERSION=1.1.1&amp;REQUEST=GetMap&amp;FORMAT=image/png&amp;TRANSPARENT=true&amp;LAYERS=AU.Baseline&amp;SRS=EPSG:3857&amp;WIDTH=512&amp;HEIGHT=512&amp;BBOX={bbox}&amp;STYLES=</t>
+  </si>
+  <si>
+    <t>Catastro.BuildingPart</t>
+  </si>
+  <si>
+    <t>BU.BuildingPart</t>
+  </si>
+  <si>
+    <t>https://ovc.catastro.meh.es/cartografia/INSPIRE/spadgcwms.aspx?SERVICE=WMS&amp;VERSION=1.1.1&amp;REQUEST=GetMap&amp;FORMAT=image/png&amp;TRANSPARENT=true&amp;LAYERS=BU.BuildingPart&amp;SRS=EPSG:3857&amp;WIDTH=512&amp;HEIGHT=512&amp;BBOX={bbox}</t>
+  </si>
+  <si>
+    <t>Catastro.AdministrativeBoundary</t>
+  </si>
+  <si>
+    <t>https://ovc.catastro.meh.es/cartografia/INSPIRE/spadgcwms.aspx?SERVICE=WMS&amp;VERSION=1.1.1&amp;REQUEST=GetMap&amp;FORMAT=image/png&amp;TRANSPARENT=true&amp;LAYERS=AU.AdministrativeBoundary&amp;SRS=EPSG:3857&amp;WIDTH=512&amp;HEIGHT=512&amp;BBOX={bbox}</t>
+  </si>
+  <si>
+    <t>Catastro.AdministrativeUnit</t>
+  </si>
+  <si>
+    <t>https://ovc.catastro.meh.es/cartografia/INSPIRE/spadgcwms.aspx?SERVICE=WMS&amp;VERSION=1.1.1&amp;REQUEST=GetMap&amp;FORMAT=image/png&amp;TRANSPARENT=true&amp;LAYERS=AU.AdministrativeUnit&amp;SRS=EPSG:3857&amp;WIDTH=512&amp;HEIGHT=512&amp;BBOX={bbox}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,14 +1001,6 @@
       <color rgb="FFE83E8C"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1028,11 +1041,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1043,12 +1055,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1327,18 +1335,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C749"/>
+  <dimension ref="A1:C776"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C749"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="186" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="186.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1363,7 +1370,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1374,7 +1381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1385,7 +1392,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1429,7 +1436,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1458,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1462,7 +1469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1495,7 +1502,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1517,7 +1524,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1528,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1550,7 +1557,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1568,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1583,7 +1590,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1594,7 +1601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1623,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1627,7 +1634,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1671,7 +1678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -1682,7 +1689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1711,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -1715,7 +1722,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -1759,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -1770,7 +1777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
@@ -1792,7 +1799,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -1803,7 +1810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -1814,7 +1821,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -1825,7 +1832,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
@@ -1836,7 +1843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -1858,7 +1865,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1880,7 +1887,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
@@ -1891,7 +1898,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>15</v>
       </c>
@@ -1902,7 +1909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
@@ -1924,7 +1931,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
@@ -1935,7 +1942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
@@ -1946,7 +1953,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>16</v>
       </c>
@@ -1957,7 +1964,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -1968,7 +1975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
@@ -2001,7 +2008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>18</v>
       </c>
@@ -2012,7 +2019,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
@@ -2067,7 +2074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>18</v>
       </c>
@@ -2078,7 +2085,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>18</v>
       </c>
@@ -2100,7 +2107,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>20</v>
       </c>
@@ -2111,7 +2118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>20</v>
       </c>
@@ -2133,7 +2140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>20</v>
       </c>
@@ -2144,7 +2151,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>20</v>
       </c>
@@ -2155,7 +2162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>20</v>
       </c>
@@ -2177,7 +2184,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>22</v>
       </c>
@@ -2188,7 +2195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
@@ -2210,7 +2217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>22</v>
       </c>
@@ -2221,7 +2228,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>22</v>
       </c>
@@ -2232,7 +2239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>22</v>
       </c>
@@ -2265,7 +2272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -2287,7 +2294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
@@ -2331,7 +2338,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>23</v>
       </c>
@@ -2342,7 +2349,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>23</v>
       </c>
@@ -2364,7 +2371,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>25</v>
       </c>
@@ -2375,7 +2382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>25</v>
       </c>
@@ -2386,7 +2393,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>25</v>
       </c>
@@ -2397,7 +2404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>25</v>
       </c>
@@ -2419,7 +2426,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>27</v>
       </c>
@@ -2430,7 +2437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>27</v>
       </c>
@@ -2441,7 +2448,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>27</v>
       </c>
@@ -2452,7 +2459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>27</v>
       </c>
@@ -2474,7 +2481,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>28</v>
       </c>
@@ -2485,7 +2492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>28</v>
       </c>
@@ -2496,7 +2503,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>28</v>
       </c>
@@ -2507,7 +2514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>28</v>
       </c>
@@ -2529,7 +2536,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>30</v>
       </c>
@@ -2540,7 +2547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>30</v>
       </c>
@@ -2551,7 +2558,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>30</v>
       </c>
@@ -2562,7 +2569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>30</v>
       </c>
@@ -2584,7 +2591,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>32</v>
       </c>
@@ -2595,7 +2602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>32</v>
       </c>
@@ -2617,7 +2624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>32</v>
       </c>
@@ -2628,7 +2635,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>32</v>
       </c>
@@ -2639,7 +2646,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>32</v>
       </c>
@@ -2705,7 +2712,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>34</v>
       </c>
@@ -2716,7 +2723,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>34</v>
       </c>
@@ -2727,7 +2734,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>34</v>
       </c>
@@ -2793,7 +2800,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>36</v>
       </c>
@@ -2804,7 +2811,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>36</v>
       </c>
@@ -2815,7 +2822,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>36</v>
       </c>
@@ -2881,7 +2888,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>37</v>
       </c>
@@ -2892,7 +2899,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>37</v>
       </c>
@@ -2903,7 +2910,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>37</v>
       </c>
@@ -2969,7 +2976,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>38</v>
       </c>
@@ -2980,7 +2987,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>38</v>
       </c>
@@ -2991,7 +2998,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>38</v>
       </c>
@@ -3057,7 +3064,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>39</v>
       </c>
@@ -3068,7 +3075,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>39</v>
       </c>
@@ -3079,7 +3086,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>39</v>
       </c>
@@ -3101,7 +3108,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>40</v>
       </c>
@@ -3145,7 +3152,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>40</v>
       </c>
@@ -3156,7 +3163,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>40</v>
       </c>
@@ -3167,7 +3174,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>40</v>
       </c>
@@ -3178,7 +3185,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>42</v>
       </c>
@@ -3189,7 +3196,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>42</v>
       </c>
@@ -3200,7 +3207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>42</v>
       </c>
@@ -3211,7 +3218,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>42</v>
       </c>
@@ -3222,7 +3229,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>42</v>
       </c>
@@ -3233,7 +3240,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>42</v>
       </c>
@@ -3244,7 +3251,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>42</v>
       </c>
@@ -3255,7 +3262,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>42</v>
       </c>
@@ -3266,7 +3273,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>43</v>
       </c>
@@ -3277,7 +3284,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>43</v>
       </c>
@@ -3288,7 +3295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>43</v>
       </c>
@@ -3299,7 +3306,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>43</v>
       </c>
@@ -3310,7 +3317,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>43</v>
       </c>
@@ -3321,7 +3328,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>43</v>
       </c>
@@ -3332,7 +3339,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>43</v>
       </c>
@@ -3343,7 +3350,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>43</v>
       </c>
@@ -3354,7 +3361,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>44</v>
       </c>
@@ -3365,7 +3372,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>44</v>
       </c>
@@ -3376,7 +3383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>44</v>
       </c>
@@ -3387,7 +3394,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>44</v>
       </c>
@@ -3398,7 +3405,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>44</v>
       </c>
@@ -3409,7 +3416,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>44</v>
       </c>
@@ -3420,7 +3427,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>44</v>
       </c>
@@ -3431,7 +3438,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>44</v>
       </c>
@@ -3442,7 +3449,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>45</v>
       </c>
@@ -3453,7 +3460,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>45</v>
       </c>
@@ -3464,7 +3471,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>45</v>
       </c>
@@ -3475,7 +3482,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>45</v>
       </c>
@@ -3486,7 +3493,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>45</v>
       </c>
@@ -3497,7 +3504,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>45</v>
       </c>
@@ -3508,7 +3515,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>45</v>
       </c>
@@ -3519,7 +3526,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>45</v>
       </c>
@@ -3530,7 +3537,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>46</v>
       </c>
@@ -3541,7 +3548,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>46</v>
       </c>
@@ -3552,7 +3559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>46</v>
       </c>
@@ -3563,7 +3570,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>46</v>
       </c>
@@ -3574,7 +3581,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>46</v>
       </c>
@@ -3585,7 +3592,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>46</v>
       </c>
@@ -3596,7 +3603,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>46</v>
       </c>
@@ -3607,7 +3614,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>46</v>
       </c>
@@ -3618,7 +3625,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>47</v>
       </c>
@@ -3629,7 +3636,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>47</v>
       </c>
@@ -3640,7 +3647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>47</v>
       </c>
@@ -3651,7 +3658,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>47</v>
       </c>
@@ -3662,7 +3669,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>47</v>
       </c>
@@ -3673,7 +3680,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>47</v>
       </c>
@@ -3684,7 +3691,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>47</v>
       </c>
@@ -3695,7 +3702,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>47</v>
       </c>
@@ -3717,7 +3724,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>48</v>
       </c>
@@ -3761,7 +3768,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>48</v>
       </c>
@@ -3772,7 +3779,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>48</v>
       </c>
@@ -3783,7 +3790,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>48</v>
       </c>
@@ -3794,7 +3801,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>49</v>
       </c>
@@ -3805,7 +3812,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>49</v>
       </c>
@@ -3816,7 +3823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>49</v>
       </c>
@@ -3827,7 +3834,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>49</v>
       </c>
@@ -3838,7 +3845,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>49</v>
       </c>
@@ -3849,7 +3856,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>49</v>
       </c>
@@ -3860,7 +3867,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>49</v>
       </c>
@@ -3871,7 +3878,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>49</v>
       </c>
@@ -3882,7 +3889,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>50</v>
       </c>
@@ -3893,7 +3900,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>50</v>
       </c>
@@ -3904,7 +3911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>50</v>
       </c>
@@ -3915,7 +3922,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>50</v>
       </c>
@@ -3926,7 +3933,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>50</v>
       </c>
@@ -3937,7 +3944,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>50</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>50</v>
       </c>
@@ -3959,7 +3966,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>50</v>
       </c>
@@ -3970,7 +3977,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>51</v>
       </c>
@@ -3981,7 +3988,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>51</v>
       </c>
@@ -3992,7 +3999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>51</v>
       </c>
@@ -4003,7 +4010,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>51</v>
       </c>
@@ -4014,7 +4021,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>51</v>
       </c>
@@ -4025,7 +4032,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>51</v>
       </c>
@@ -4036,7 +4043,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>51</v>
       </c>
@@ -4047,7 +4054,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>51</v>
       </c>
@@ -4058,7 +4065,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>52</v>
       </c>
@@ -4069,7 +4076,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>52</v>
       </c>
@@ -4080,7 +4087,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>52</v>
       </c>
@@ -4091,7 +4098,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>52</v>
       </c>
@@ -4102,7 +4109,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>52</v>
       </c>
@@ -4113,7 +4120,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>52</v>
       </c>
@@ -4124,7 +4131,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>52</v>
       </c>
@@ -4135,7 +4142,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>52</v>
       </c>
@@ -4146,7 +4153,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>53</v>
       </c>
@@ -4157,7 +4164,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>53</v>
       </c>
@@ -4168,7 +4175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>53</v>
       </c>
@@ -4179,7 +4186,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>53</v>
       </c>
@@ -4190,7 +4197,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>53</v>
       </c>
@@ -4201,7 +4208,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>53</v>
       </c>
@@ -4212,7 +4219,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>53</v>
       </c>
@@ -4223,7 +4230,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>53</v>
       </c>
@@ -4234,7 +4241,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>54</v>
       </c>
@@ -4245,7 +4252,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>54</v>
       </c>
@@ -4256,7 +4263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>54</v>
       </c>
@@ -4267,7 +4274,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>54</v>
       </c>
@@ -4278,7 +4285,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>54</v>
       </c>
@@ -4289,7 +4296,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>54</v>
       </c>
@@ -4300,7 +4307,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>54</v>
       </c>
@@ -4311,7 +4318,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>54</v>
       </c>
@@ -4333,7 +4340,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>55</v>
       </c>
@@ -4374,7 +4381,7 @@
         <v>142</v>
       </c>
       <c r="C276" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4388,7 +4395,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>55</v>
       </c>
@@ -4399,7 +4406,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>55</v>
       </c>
@@ -4432,7 +4439,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>58</v>
       </c>
@@ -4487,7 +4494,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>58</v>
       </c>
@@ -4498,7 +4505,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>58</v>
       </c>
@@ -4531,7 +4538,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>60</v>
       </c>
@@ -4572,7 +4579,7 @@
         <v>142</v>
       </c>
       <c r="C294" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4586,7 +4593,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>60</v>
       </c>
@@ -4597,7 +4604,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>60</v>
       </c>
@@ -4630,7 +4637,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>61</v>
       </c>
@@ -4671,7 +4678,7 @@
         <v>142</v>
       </c>
       <c r="C303" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4685,7 +4692,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>61</v>
       </c>
@@ -4696,7 +4703,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>61</v>
       </c>
@@ -4729,7 +4736,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>62</v>
       </c>
@@ -4770,7 +4777,7 @@
         <v>142</v>
       </c>
       <c r="C312" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4784,7 +4791,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>62</v>
       </c>
@@ -4795,7 +4802,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>62</v>
       </c>
@@ -4828,7 +4835,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>63</v>
       </c>
@@ -4869,7 +4876,7 @@
         <v>142</v>
       </c>
       <c r="C321" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4883,7 +4890,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>63</v>
       </c>
@@ -4894,7 +4901,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>63</v>
       </c>
@@ -4927,7 +4934,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>64</v>
       </c>
@@ -4968,7 +4975,7 @@
         <v>142</v>
       </c>
       <c r="C330" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4982,7 +4989,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>64</v>
       </c>
@@ -4993,7 +5000,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>64</v>
       </c>
@@ -5017,7 +5024,7 @@
     </row>
     <row r="335" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>129</v>
@@ -5026,31 +5033,31 @@
         <v>144</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>185</v>
+        <v>308</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>146</v>
@@ -5061,744 +5068,744 @@
     </row>
     <row r="339" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="B339" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C339" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B340" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="C340" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B340" s="3" t="s">
+    <row r="341" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B341" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C340" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B341" s="3" t="s">
+      <c r="C341" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B342" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C341" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="C342" s="3" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="B343" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B344" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C344" s="3" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B344" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>67</v>
+        <v>310</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>67</v>
+        <v>310</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>67</v>
+        <v>310</v>
       </c>
       <c r="B347" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C348" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B349" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="C349" s="3" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B349" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>67</v>
+        <v>310</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B352" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C350" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="C352" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>257</v>
+        <v>142</v>
+      </c>
+      <c r="C357" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>297</v>
+        <v>158</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>69</v>
+        <v>312</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>69</v>
+        <v>312</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>66</v>
+        <v>313</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>69</v>
+        <v>312</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>297</v>
+        <v>158</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>66</v>
+        <v>256</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>189</v>
+        <v>297</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B374" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B377" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="C377" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B375" s="3" t="s">
+    <row r="378" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B378" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="C378" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B376" s="3" t="s">
+    <row r="379" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B379" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C376" s="3" t="s">
+      <c r="C379" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B377" s="3" t="s">
+    <row r="380" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B380" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C377" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B378" s="3" t="s">
+      <c r="C380" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B381" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C378" s="3" t="s">
+      <c r="C381" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B379" s="3" t="s">
+    <row r="382" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B382" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C379" s="3" t="s">
+      <c r="C382" s="3" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>297</v>
+        <v>158</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>192</v>
+        <v>297</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C396" s="3">
-        <v>14</v>
+        <v>145</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B398" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C397" s="3" t="s">
+      <c r="C398" s="3" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B399" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B401" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C399" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B400" s="3" t="s">
+      <c r="C401" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B402" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C400" s="3" t="s">
+      <c r="C402" s="3" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B402" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C405" s="3">
-        <v>14</v>
+        <v>146</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>148</v>
@@ -5807,75 +5814,75 @@
         <v>158</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B407" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B408" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C407" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="C408" s="3" t="s">
-        <v>75</v>
+        <v>260</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B409" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B410" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C409" s="3" t="s">
+      <c r="C410" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B410" s="3" t="s">
+    <row r="411" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B411" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C410" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="C411" s="3" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>146</v>
@@ -5886,51 +5893,51 @@
     </row>
     <row r="414" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C414" s="3">
-        <v>15</v>
+        <v>148</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>75</v>
+        <v>297</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>129</v>
@@ -5941,40 +5948,40 @@
     </row>
     <row r="419" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>146</v>
@@ -5983,53 +5990,53 @@
         <v>147</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="C423" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C424" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>293</v>
+        <v>75</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>129</v>
@@ -6038,42 +6045,42 @@
         <v>144</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>146</v>
@@ -6082,3513 +6089,3803 @@
         <v>147</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C432" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="C432" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B435" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B436" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C435" s="3" t="s">
+      <c r="C436" s="3" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B436" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C436" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B439" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B440" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C439" s="3" t="s">
+      <c r="C440" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B440" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C440" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B441" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C441" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B443" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C441" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B442" s="3" t="s">
+      <c r="C443" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B444" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C442" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A443" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C443" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A444" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B444" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="C444" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B447" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B449" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C447" s="3" t="s">
+      <c r="C449" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B448" s="3" t="s">
+    <row r="450" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B450" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C448" s="3" t="s">
+      <c r="C450" s="3" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B449" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B450" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C451" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="C451" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>197</v>
+        <v>293</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>197</v>
+        <v>293</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>199</v>
+        <v>293</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>268</v>
+        <v>158</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>90</v>
+        <v>266</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>199</v>
+        <v>293</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B479" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B482" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C479" s="3" t="s">
+      <c r="C482" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A480" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B480" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C480" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B482" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C482" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>85</v>
+        <v>267</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>201</v>
+        <v>86</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>85</v>
+        <v>267</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C497" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>271</v>
+        <v>147</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B499" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B501" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C499" s="3" t="s">
+      <c r="C501" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A500" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B500" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B501" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B504" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A505" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A506" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B506" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C504" s="3" t="s">
+      <c r="C506" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A505" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B505" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C505" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A506" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B506" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B507" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A508" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A509" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B509" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C507" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A508" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B508" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A509" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B509" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="C509" s="3" t="s">
-        <v>85</v>
+        <v>298</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C514" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B515" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B516" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C515" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="C516" s="3" t="s">
-        <v>86</v>
+        <v>270</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B517" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B518" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C517" s="3" t="s">
+      <c r="C518" s="3" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A518" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B518" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B521" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B522" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C521" s="3" t="s">
+      <c r="C522" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B522" s="3" t="s">
+    <row r="523" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B523" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C522" s="3" t="s">
+      <c r="C523" s="3" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B523" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C524" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="C524" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B529" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A530" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B531" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C529" s="3" t="s">
+      <c r="C531" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B530" s="3" t="s">
+    <row r="532" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B532" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C530" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B531" s="3" t="s">
+      <c r="C532" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B533" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C531" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A532" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B532" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C532" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A533" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="C533" s="3" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B537" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B539" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C537" s="3" t="s">
+      <c r="C539" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A538" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B538" s="3" t="s">
+    <row r="540" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A540" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B540" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C538" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A539" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B539" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C539" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B540" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="C540" s="3" t="s">
-        <v>299</v>
+        <v>198</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C541" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="C541" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>97</v>
+        <v>273</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B545" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B548" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C545" s="3" t="s">
+      <c r="C548" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A546" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B546" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C546" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B547" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C547" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A548" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B548" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C548" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>97</v>
+        <v>274</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B553" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A554" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A556" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B556" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C553" s="3" t="s">
+      <c r="C556" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A554" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B554" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C554" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A555" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B555" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C555" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A556" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B556" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C556" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>97</v>
+        <v>275</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>210</v>
+        <v>299</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B561" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A563" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A564" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B564" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C561" s="3" t="s">
+      <c r="C564" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A562" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B562" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C562" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A563" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B563" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C563" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A564" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B564" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C564" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>97</v>
+        <v>275</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B569" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A572" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B572" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C569" s="3" t="s">
+      <c r="C572" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B570" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C570" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A571" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B571" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C571" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A572" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B572" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C572" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>104</v>
+        <v>276</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C579" s="4" t="s">
-        <v>302</v>
+        <v>148</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>300</v>
+        <v>147</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>104</v>
+        <v>277</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C587" s="4" t="s">
-        <v>302</v>
+        <v>148</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>300</v>
+        <v>147</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C595" s="4" t="s">
-        <v>303</v>
+        <v>148</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>300</v>
+        <v>147</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C603" s="4" t="s">
-        <v>304</v>
+        <v>148</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>300</v>
+        <v>147</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>109</v>
+        <v>302</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>305</v>
+        <v>158</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B614" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B617" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C614" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A615" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B615" s="3" t="s">
+      <c r="C617" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B618" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C615" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A616" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B616" s="3" t="s">
+      <c r="C618" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B619" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C616" s="3" t="s">
+      <c r="C619" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A617" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B617" s="3" t="s">
+    <row r="620" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B620" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C617" s="3" t="s">
+      <c r="C620" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A618" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B618" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C618" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A619" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B619" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C619" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A620" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B620" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C620" s="3" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>109</v>
+        <v>303</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>217</v>
+        <v>300</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>306</v>
+        <v>158</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>301</v>
+        <v>147</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
     </row>
     <row r="630" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>113</v>
+        <v>304</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="633" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B633" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A634" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A635" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A636" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B636" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C633" s="3" t="s">
+      <c r="C636" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A634" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B634" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C634" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A635" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B635" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C635" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A636" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B636" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C636" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="637" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C637" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>113</v>
+        <v>305</v>
       </c>
     </row>
     <row r="639" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C639" s="3" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
     </row>
     <row r="640" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="641" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B641" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A642" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A643" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A644" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B644" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C641" s="3" t="s">
+      <c r="C644" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A642" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B642" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C642" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A643" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B643" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C643" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A644" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B644" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C644" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="645" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>113</v>
+        <v>305</v>
       </c>
     </row>
     <row r="647" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C647" s="3" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
     </row>
     <row r="648" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C648" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="649" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B649" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A650" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A651" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A652" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B652" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C649" s="3" t="s">
+      <c r="C652" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A650" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B650" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C650" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A651" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B651" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C651" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A652" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B652" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C652" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="653" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C654" s="3" t="s">
-        <v>113</v>
+        <v>306</v>
       </c>
     </row>
     <row r="655" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C655" s="3" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
     </row>
     <row r="656" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="657" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B657" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A658" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A659" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A660" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B660" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C657" s="3" t="s">
+      <c r="C660" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="658" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A658" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B658" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C658" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="659" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A659" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B659" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C659" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="660" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A660" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B660" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C660" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="661" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C661" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="662" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C662" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
     </row>
     <row r="663" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
     </row>
     <row r="664" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C664" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="665" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B665" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A666" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A667" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A668" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B668" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C665" s="3" t="s">
+      <c r="C668" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="666" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A666" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B666" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C666" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="667" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A667" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B667" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C667" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A668" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B668" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C668" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="669" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="670" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
     </row>
     <row r="671" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
     </row>
     <row r="672" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="673" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B673" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A674" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A675" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A676" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B676" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C673" s="3" t="s">
+      <c r="C676" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="674" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A674" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B674" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C674" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="675" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A675" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B675" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C675" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="676" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A676" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B676" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C676" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="677" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C677" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="678" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A678" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
     </row>
     <row r="679" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C679" s="3" t="s">
-        <v>223</v>
+        <v>293</v>
       </c>
     </row>
     <row r="680" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="681" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A681" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B681" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A682" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A683" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A684" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B684" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C681" s="3" t="s">
+      <c r="C684" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="682" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A682" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B682" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C682" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="683" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A683" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B683" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C683" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="684" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A684" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B684" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C684" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="685" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A685" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C685" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="686" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>113</v>
+        <v>282</v>
       </c>
     </row>
     <row r="687" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A687" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
     </row>
     <row r="688" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="689" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A689" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B689" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A690" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A691" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A692" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B692" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C689" s="3" t="s">
+      <c r="C692" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="690" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A690" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B690" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C690" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="691" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A691" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B691" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C691" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A692" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B692" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C692" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="693" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A693" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="694" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A694" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>113</v>
+        <v>283</v>
       </c>
     </row>
     <row r="695" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C695" s="3" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
     </row>
     <row r="696" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="697" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B697" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A698" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A699" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A700" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B700" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C697" s="3" t="s">
+      <c r="C700" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="698" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A698" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B698" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C698" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="699" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A699" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B699" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C699" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="700" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A700" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B700" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C700" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="701" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A701" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="702" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A702" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>113</v>
+        <v>284</v>
       </c>
     </row>
     <row r="703" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
     </row>
     <row r="704" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A704" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="705" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A705" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B705" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A706" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A707" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A708" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B708" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C705" s="3" t="s">
+      <c r="C708" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="706" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A706" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B706" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C706" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="707" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A707" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B707" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C707" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="708" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A708" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B708" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C708" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="709" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="710" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A710" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>113</v>
+        <v>285</v>
       </c>
     </row>
     <row r="711" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
     </row>
     <row r="712" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="713" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A713" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B713" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A714" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A715" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A716" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B716" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C713" s="3" t="s">
+      <c r="C716" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="714" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A714" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B714" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C714" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="715" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A715" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B715" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C715" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="716" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A716" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B716" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C716" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="717" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A717" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C717" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="718" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A718" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C718" s="3" t="s">
-        <v>113</v>
+        <v>286</v>
       </c>
     </row>
     <row r="719" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A719" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C719" s="3" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
     </row>
     <row r="720" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A720" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="721" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="722" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A722" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C722" s="3" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
     </row>
     <row r="723" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A723" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C723" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="724" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B724" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A725" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A726" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B726" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C724" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="725" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A725" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B725" s="3" t="s">
+      <c r="C726" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A727" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B727" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C725" s="3" t="s">
+      <c r="C727" s="3" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="726" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A726" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B726" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C726" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="727" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A727" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B727" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C727" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="728" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
     </row>
     <row r="729" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
     </row>
     <row r="730" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B730" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A731" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A732" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B732" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C730" s="3" t="s">
+      <c r="C732" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="731" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A731" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B731" s="3" t="s">
+    <row r="733" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A733" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B733" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C731" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="732" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A732" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B732" s="3" t="s">
+      <c r="C733" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A734" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B734" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C732" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="733" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A733" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B733" s="3" t="s">
+      <c r="C734" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A735" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B735" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C733" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="734" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A734" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B734" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C734" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="735" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A735" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B735" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="C735" s="3" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
     </row>
     <row r="736" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
     </row>
     <row r="737" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A737" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C737" s="3" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
     </row>
     <row r="738" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A739" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A740" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A741" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A742" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A743" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A744" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A745" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A746" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A747" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A748" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A749" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A750" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C750" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A751" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A752" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A753" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A754" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A755" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A756" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A757" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A758" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A759" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A760" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A761" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B738" s="3" t="s">
+      <c r="B761" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A762" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A763" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A764" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A765" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B765" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C738" s="3" t="s">
+      <c r="C765" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A739" s="2" t="s">
+    <row r="766" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A766" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B739" s="3" t="s">
+      <c r="B766" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C739" s="3" t="s">
+      <c r="C766" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A740" s="2" t="s">
+    <row r="767" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A767" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B740" s="3" t="s">
+      <c r="B767" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C740" s="3" t="s">
+      <c r="C767" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A741" s="2" t="s">
+    <row r="768" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A768" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B741" s="3" t="s">
+      <c r="B768" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C741" s="3" t="s">
+      <c r="C768" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A742" s="2" t="s">
+    <row r="769" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A769" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B742" s="3" t="s">
+      <c r="B769" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C742" s="3" t="s">
+      <c r="C769" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A743" s="2" t="s">
+    <row r="770" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A770" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B743" s="3" t="s">
+      <c r="B770" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C743" s="3" t="s">
+      <c r="C770" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A744" s="2" t="s">
+    <row r="771" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A771" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B744" s="3" t="s">
+      <c r="B771" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C744" s="3" t="s">
+      <c r="C771" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A745" s="2" t="s">
+    <row r="772" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A772" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B745" s="3" t="s">
+      <c r="B772" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C745" s="3" t="s">
+      <c r="C772" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A746" s="2" t="s">
+    <row r="773" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A773" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B746" s="3" t="s">
+      <c r="B773" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C746" s="3" t="s">
+      <c r="C773" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A747" s="2" t="s">
+    <row r="774" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A774" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B747" s="3" t="s">
+      <c r="B774" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C747" s="3" t="s">
+      <c r="C774" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A748" s="2" t="s">
+    <row r="775" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A775" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B748" s="3" t="s">
+      <c r="B775" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C748" s="3" t="s">
+      <c r="C775" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A749" s="2" t="s">
+    <row r="776" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A776" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B749" s="3" t="s">
+      <c r="B776" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C749" s="3" t="s">
+      <c r="C776" s="3" t="s">
         <v>298</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C749"/>
-  <hyperlinks>
-    <hyperlink ref="C579" r:id="rId1"/>
-    <hyperlink ref="C587" r:id="rId2"/>
-    <hyperlink ref="C595" r:id="rId3"/>
-    <hyperlink ref="C603" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>